--- a/HTML/AR_CS Excel.xlsx
+++ b/HTML/AR_CS Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D586BBDF-BAED-4EE8-87AB-2B4E376AE015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1208495B-C977-4DD5-8E78-19F0AF136F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Characters" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="181">
   <si>
     <t>Channel Name</t>
   </si>
@@ -422,9 +422,6 @@
     <t xml:space="preserve">.Net </t>
   </si>
   <si>
-    <t>Functional Programming</t>
-  </si>
-  <si>
     <t>احمد ربيع</t>
   </si>
   <si>
@@ -563,6 +560,24 @@
   <si>
     <t>English
 CS</t>
+  </si>
+  <si>
+    <t>Passionate Coders</t>
+  </si>
+  <si>
+    <t>Functional Prog</t>
+  </si>
+  <si>
+    <t>Prog Talks</t>
+  </si>
+  <si>
+    <t>Mohamad Lawand</t>
+  </si>
+  <si>
+    <t>c#</t>
+  </si>
+  <si>
+    <t>ASP.NET</t>
   </si>
 </sst>
 </file>
@@ -659,7 +674,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,8 +723,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -759,13 +780,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -777,10 +813,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -792,70 +828,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -875,32 +853,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -918,12 +870,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -949,155 +955,131 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1382,567 +1364,577 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="4" customWidth="1"/>
     <col min="9" max="9" width="1.85546875" style="4" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>163</v>
+      <c r="A2" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="J2" s="36"/>
-    </row>
-    <row r="3" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="J4" s="47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="12" t="s">
+      <c r="G6" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="48"/>
-    </row>
-    <row r="6" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="48"/>
-    </row>
-    <row r="7" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="48"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>167</v>
+      <c r="A8" s="22" t="s">
+        <v>166</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8" s="40" t="s">
+      <c r="E8" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="48"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="32" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="48"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>135</v>
-      </c>
       <c r="D10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="13" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="50" t="s">
-        <v>175</v>
+      <c r="J11" s="34" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="22" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="24" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="32" t="s">
+      <c r="G12" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="49"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="33" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="32" t="s">
+      <c r="G13" s="21"/>
+      <c r="H13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="49"/>
+      <c r="J13" s="35"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>138</v>
+      <c r="C14" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" s="33" t="s">
+      <c r="E14" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>137</v>
+      <c r="G14" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="49"/>
+        <v>161</v>
+      </c>
+      <c r="J14" s="35"/>
     </row>
     <row r="15" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="39" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="33" t="s">
+      <c r="E15" s="21"/>
+      <c r="F15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="49"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="12"/>
+      <c r="J15" s="35"/>
     </row>
     <row r="16" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>139</v>
+      <c r="A16" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>140</v>
+      <c r="D16" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="39" t="s">
+      <c r="G16" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="49"/>
+      <c r="J16" s="35"/>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="33" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39" t="s">
+      <c r="G17" s="21"/>
+      <c r="H17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="49"/>
+      <c r="J17" s="35"/>
     </row>
     <row r="18" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="52" t="s">
+      <c r="E18" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="39" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52" t="s">
+      <c r="E19" s="30"/>
+      <c r="F19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="12" t="s">
+      <c r="G19" s="24"/>
+      <c r="H19" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="19" t="s">
+      <c r="C20" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="39" t="s">
+      <c r="F20" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="56" t="s">
+    <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="57" t="s">
+      <c r="A22" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="53" t="s">
+      <c r="C22" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="39" t="s">
+      <c r="H24" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-    </row>
-    <row r="25" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
@@ -1958,56 +1950,57 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D21" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="49">
+  <mergeCells count="50">
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="J4:J9"/>
     <mergeCell ref="J11:J17"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1" display="Elzero Web School " xr:uid="{25375E84-8A0F-4C8E-A0A6-129D9BAD3AD7}"/>
@@ -2018,66 +2011,71 @@
     <hyperlink ref="G16" r:id="rId6" display="Adel Sabour" xr:uid="{9FA637F1-5AA1-4967-90E3-45F6D26AED76}"/>
     <hyperlink ref="C14" r:id="rId7" display="Mohammed Reda" xr:uid="{0AC05772-3FF3-441C-A373-521122B4D05B}"/>
     <hyperlink ref="C8" r:id="rId8" xr:uid="{0AFBD325-A4ED-49FB-BD77-2EC5F01A733A}"/>
-    <hyperlink ref="G14" r:id="rId9" display="Mohamed Radwan" xr:uid="{FC42DC1D-19B4-4457-A2A4-CC31408A487F}"/>
+    <hyperlink ref="G6" r:id="rId9" display="Mohamed Radwan" xr:uid="{FC42DC1D-19B4-4457-A2A4-CC31408A487F}"/>
     <hyperlink ref="C12" r:id="rId10" xr:uid="{C257D23F-E7F3-4B2C-A81E-ABB135665F17}"/>
     <hyperlink ref="E14" r:id="rId11" display="codeZone" xr:uid="{AD3E786E-B45E-4151-A776-535EB9C5F3F8}"/>
-    <hyperlink ref="G6" r:id="rId12" display="Tech Talks in Arabic" xr:uid="{2607A5E8-D043-40BD-8F73-EFD1D8595C3E}"/>
+    <hyperlink ref="C6" r:id="rId12" display="Tech Talks in Arabic" xr:uid="{2607A5E8-D043-40BD-8F73-EFD1D8595C3E}"/>
     <hyperlink ref="C18" r:id="rId13" xr:uid="{B15F1C77-02F6-476A-B25F-BFA4D3D66399}"/>
-    <hyperlink ref="E4" r:id="rId14" display="أكاديمية علوم المستقبل" xr:uid="{FA072EE1-CD26-4C1D-8179-A73587D74C49}"/>
-    <hyperlink ref="A4" r:id="rId15" display="Power Platform Geeks" xr:uid="{EB38766A-58E1-4692-BB86-5EE4952E2505}"/>
+    <hyperlink ref="E6" r:id="rId14" display="أكاديمية علوم المستقبل" xr:uid="{FA072EE1-CD26-4C1D-8179-A73587D74C49}"/>
+    <hyperlink ref="E2" r:id="rId15" display="Power Platform Geeks" xr:uid="{EB38766A-58E1-4692-BB86-5EE4952E2505}"/>
     <hyperlink ref="E12:E13" r:id="rId16" display="Unique Coderz Academy" xr:uid="{DBD1A948-DF0E-4574-AC33-8590AED16B15}"/>
     <hyperlink ref="G8:G9" r:id="rId17" display="أكاديمية إمام" xr:uid="{193C85F9-45AD-4726-908D-FEDE8285DC2A}"/>
     <hyperlink ref="G18:G19" r:id="rId18" display="احمد صيام" xr:uid="{70C2E187-9D6C-4BCF-B797-97E1532C67BF}"/>
     <hyperlink ref="E10:E11" r:id="rId19" display="Software ArchTalks" xr:uid="{23ED9F07-9526-4626-9D22-BBC8AF6FF165}"/>
     <hyperlink ref="J4" location="'Programming Talks'!A1" display="Programming Talks" xr:uid="{4A65B32F-006E-46C6-924F-DA2555A332C9}"/>
-    <hyperlink ref="C6" r:id="rId20" display="Mohamed Elsherif" xr:uid="{25863061-A3CD-4E18-BA08-22A762E46286}"/>
+    <hyperlink ref="A6" r:id="rId20" display="Mohamed Elsherif" xr:uid="{25863061-A3CD-4E18-BA08-22A762E46286}"/>
     <hyperlink ref="E16" r:id="rId21" display="Mohamed Moshrif" xr:uid="{86AFF1EC-3D4C-4F14-9C17-D1D683A19BEB}"/>
     <hyperlink ref="C10" r:id="rId22" display="Ahmed Ali" xr:uid="{A0670EE8-C454-46B0-8787-638E3ACFB1EE}"/>
-    <hyperlink ref="A6" r:id="rId23" display="Ahmed Elemam" xr:uid="{69F3FC8D-AF95-4ADE-9E96-64884E49704B}"/>
+    <hyperlink ref="E4" r:id="rId23" display="Ahmed Elemam" xr:uid="{69F3FC8D-AF95-4ADE-9E96-64884E49704B}"/>
     <hyperlink ref="C16" r:id="rId24" xr:uid="{FBA4710D-1A98-408B-9A00-0D0658CCE60B}"/>
     <hyperlink ref="A20" r:id="rId25" display="Yallacode" xr:uid="{17043AA0-F029-466C-A48C-6301434E8C0E}"/>
-    <hyperlink ref="C2" r:id="rId26" display="Codographia" xr:uid="{3C67B8D5-2C4D-45D0-B773-05112E64CE1A}"/>
-    <hyperlink ref="E2" r:id="rId27" display="Ahmed Rabie" xr:uid="{73A55DA2-8B4A-43A2-9001-75AB22B22506}"/>
-    <hyperlink ref="A2" r:id="rId28" display="Mahmoud Hamza" xr:uid="{FAD15C80-C693-456B-BE57-744D4D19481C}"/>
+    <hyperlink ref="A2" r:id="rId26" display="Codographia" xr:uid="{3C67B8D5-2C4D-45D0-B773-05112E64CE1A}"/>
+    <hyperlink ref="G24" r:id="rId27" display="Ahmed Rabie" xr:uid="{73A55DA2-8B4A-43A2-9001-75AB22B22506}"/>
+    <hyperlink ref="C24" r:id="rId28" display="Mahmoud Hamza" xr:uid="{FAD15C80-C693-456B-BE57-744D4D19481C}"/>
     <hyperlink ref="A16:A17" r:id="rId29" display="Ahmed Fathi" xr:uid="{E0A6CD91-4472-4224-B285-D6A70A1D247C}"/>
     <hyperlink ref="G20:G21" r:id="rId30" display="Ramy Hakam" xr:uid="{5A67FA50-B00E-4363-8653-49E92541A3AB}"/>
     <hyperlink ref="E20:E21" r:id="rId31" display="غريب الشيخ" xr:uid="{2CC4C961-5634-4E40-B778-F6D4AB4C379B}"/>
     <hyperlink ref="E22" r:id="rId32" display="https://www.youtube.com/user/quantum01010101/videos" xr:uid="{4839D384-BB0D-4495-8ACD-6D840A79B3C8}"/>
     <hyperlink ref="A24:A25" r:id="rId33" display="سامح دعبس" xr:uid="{E592D94A-ABB9-498E-99C8-C4836D80ADC9}"/>
-    <hyperlink ref="C24:C25" r:id="rId34" display="Mobarmg" xr:uid="{0E9E9607-AEA1-41B9-A8D1-FED9A5CF1949}"/>
-    <hyperlink ref="C4:C5" r:id="rId35" display="احمد سمير" xr:uid="{68ACADA9-06C9-408E-B042-1F44723DC04A}"/>
-    <hyperlink ref="G4:G5" r:id="rId36" display="عمرو غنيم" xr:uid="{EA948888-F5C2-4319-A6B2-807171C7CADA}"/>
-    <hyperlink ref="G22:G23" r:id="rId37" display="Metwally Labs" xr:uid="{FF1F0258-FD01-463E-BBA0-7EFE996C5D6A}"/>
+    <hyperlink ref="G22:G23" r:id="rId34" display="Mobarmg" xr:uid="{0E9E9607-AEA1-41B9-A8D1-FED9A5CF1949}"/>
+    <hyperlink ref="G2:G3" r:id="rId35" display="احمد سمير" xr:uid="{68ACADA9-06C9-408E-B042-1F44723DC04A}"/>
+    <hyperlink ref="C4:C5" r:id="rId36" display="عمرو غنيم" xr:uid="{EA948888-F5C2-4319-A6B2-807171C7CADA}"/>
+    <hyperlink ref="C22:C23" r:id="rId37" display="Metwally Labs" xr:uid="{FF1F0258-FD01-463E-BBA0-7EFE996C5D6A}"/>
     <hyperlink ref="A22:A23" r:id="rId38" display="حسين عبدالله" xr:uid="{FCC45CCE-788A-44C0-AE00-1FEF173B4598}"/>
-    <hyperlink ref="C22:C23" r:id="rId39" display="Pragma" xr:uid="{5D4FEB44-1398-4262-9717-2251E38F90D5}"/>
+    <hyperlink ref="G14:G15" r:id="rId39" display="Pragma" xr:uid="{5D4FEB44-1398-4262-9717-2251E38F90D5}"/>
     <hyperlink ref="E8:E9" r:id="rId40" display="Tecno U" xr:uid="{25D46906-E475-49EB-B01C-20AC02711EB6}"/>
     <hyperlink ref="J1" location="Characters!A1" display="Back" xr:uid="{FA9479A9-46F7-426C-9164-41085BC9CD90}"/>
     <hyperlink ref="J1:J2" r:id="rId41" display="Back" xr:uid="{8155EB23-5450-4ABF-A5FA-27E30B891C84}"/>
-    <hyperlink ref="G2:G3" r:id="rId42" display="Dev Creed" xr:uid="{B0B0FA7D-E5E5-49ED-8C2D-707B11F36A86}"/>
+    <hyperlink ref="C2:C3" r:id="rId42" display="Dev Creed" xr:uid="{B0B0FA7D-E5E5-49ED-8C2D-707B11F36A86}"/>
     <hyperlink ref="C20:C21" r:id="rId43" display="اسلام محمود" xr:uid="{BC88BA8D-83BF-4720-B6F7-D789ACA39809}"/>
     <hyperlink ref="J4:J9" location="Other!A1" display="Others" xr:uid="{11D303C4-43EB-4CC2-9848-259B67272B03}"/>
     <hyperlink ref="J11:K12" location="En!A1" display="English CS" xr:uid="{1D88F396-3C6F-4DB3-B9F2-D98189508CF2}"/>
+    <hyperlink ref="A4:A5" r:id="rId44" display="Passionate Coders" xr:uid="{036E4D08-A0AB-425E-B03D-710C995B0636}"/>
+    <hyperlink ref="G4:G5" r:id="rId45" display="Mostafa Ibrahim" xr:uid="{8A374258-CE17-4E11-8550-DCD25E8F2811}"/>
+    <hyperlink ref="A10:A11" r:id="rId46" display="د احمد سالم" xr:uid="{D69CF332-3642-4C79-899F-2BB4F4909AD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId44"/>
+  <pageSetup orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F14294A-EB0E-47C9-9FD2-5D35C37F8E5D}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.28515625" defaultRowHeight="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="33.28515625" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="33.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>99</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>93</v>
       </c>
@@ -2096,14 +2094,12 @@
       <c r="G1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>99</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
       <c r="B2" s="3" t="s">
         <v>100</v>
       </c>
@@ -2122,49 +2118,49 @@
       <c r="G2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="50" t="s">
         <v>111</v>
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
         <v>112</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2183,10 +2179,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>118</v>
-      </c>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="50"/>
       <c r="B7" s="3" t="s">
         <v>119</v>
       </c>
@@ -2203,9 +2197,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>124</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>118</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2213,11 +2207,68 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="50"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="50"/>
+      <c r="B11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="50"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A5:F5"/>
+  <mergeCells count="13">
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.youtube.com/@AaronJack/videos" xr:uid="{70DF3182-9D14-4337-8C14-F37F1F39256B}"/>
@@ -2226,7 +2277,7 @@
     <hyperlink ref="E1" r:id="rId4" display="https://www.youtube.com/c/Freecodecamp/videos" xr:uid="{6B5AC72C-7D95-4712-B510-8CE863DDECF7}"/>
     <hyperlink ref="F1" r:id="rId5" display="https://www.youtube.com/c/WebDevSimplified/playlists" xr:uid="{159F23E5-A3B4-4E2B-8333-456BB97AA05C}"/>
     <hyperlink ref="G1" r:id="rId6" display="https://www.youtube.com/c/CodingAddict/videos" xr:uid="{9429CE74-0AF8-46CA-A549-D21782B82C91}"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.youtube.com/@javascriptmastery/videos" xr:uid="{B7A5D8DC-98EF-4E0F-B335-8B0AD706F1E4}"/>
+    <hyperlink ref="A1" r:id="rId7" display="https://www.youtube.com/@javascriptmastery/videos" xr:uid="{B7A5D8DC-98EF-4E0F-B335-8B0AD706F1E4}"/>
     <hyperlink ref="B2" r:id="rId8" display="https://www.youtube.com/c/drehimself/playlists" xr:uid="{69546012-CB10-4E74-ACF9-1BB195FC9071}"/>
     <hyperlink ref="C2" r:id="rId9" display="https://www.youtube.com/c/programmingwithmosh/videos" xr:uid="{0C88895A-BEC7-4C32-8B4C-EF6D84083A65}"/>
     <hyperlink ref="D2" r:id="rId10" display="https://www.youtube.com/c/TheCodingTrain/videos" xr:uid="{774E061E-EF1D-4485-9A7E-38E304AAF6BB}"/>
@@ -2245,13 +2296,13 @@
     <hyperlink ref="D6" r:id="rId23" display="https://www.youtube.com/c/CodeMonkeyUnity/videos" xr:uid="{11F8A56F-7E74-4320-B6FD-3465B387E4F4}"/>
     <hyperlink ref="E6" r:id="rId24" display="https://www.youtube.com/c/derekbanas/videos" xr:uid="{3518B22F-FE17-46B8-8FE1-554025AF3233}"/>
     <hyperlink ref="F6" r:id="rId25" display="https://www.youtube.com/@GeeksLesson/videos" xr:uid="{7D4308D0-D5AA-4391-ACE9-5A5D7C95F7B7}"/>
-    <hyperlink ref="A7" r:id="rId26" display="https://www.youtube.com/@EasyTutorialsVideo/videos" xr:uid="{4288F79B-846B-4D21-A3AE-12BBEA47AB91}"/>
+    <hyperlink ref="A8" r:id="rId26" display="https://www.youtube.com/@EasyTutorialsVideo/videos" xr:uid="{4288F79B-846B-4D21-A3AE-12BBEA47AB91}"/>
     <hyperlink ref="B7" r:id="rId27" display="https://www.youtube.com/@Devdojo/videos" xr:uid="{7843AA6C-63C4-406C-93A6-BB09FB543720}"/>
     <hyperlink ref="C7" r:id="rId28" display="https://www.youtube.com/@gennadykorotkevich8583/videos" xr:uid="{D7E0339F-1EA6-42EB-931F-3B0869884CA6}"/>
     <hyperlink ref="D7" r:id="rId29" display="https://www.youtube.com/@NetNinja/videos" xr:uid="{BE44CD07-0383-470A-AAC8-1F67CE60E7B9}"/>
     <hyperlink ref="E7" r:id="rId30" display="https://www.youtube.com/@nesoacademy/playlists" xr:uid="{DBDADF3C-D0EA-4D72-9A2D-88D63B892C55}"/>
     <hyperlink ref="F7" r:id="rId31" display="https://www.youtube.com/@Telmosampaio/videos" xr:uid="{79A51BF9-0387-4633-B8C0-CAB7A6477124}"/>
-    <hyperlink ref="A8" r:id="rId32" display="https://www.youtube.com/@academind/videos" xr:uid="{CCFE3651-DC28-490A-A0D7-821FACB58C0A}"/>
+    <hyperlink ref="A12" r:id="rId32" display="https://www.youtube.com/@academind/videos" xr:uid="{CCFE3651-DC28-490A-A0D7-821FACB58C0A}"/>
     <hyperlink ref="H1" location="Characters!A1" display="Back" xr:uid="{4AEA9692-40BC-4A77-B45D-E498B0810C48}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2281,109 +2332,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="46" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="40" t="s">
         <v>72</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="44" t="s">
         <v>60</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="26" t="s">
-        <v>152</v>
+      <c r="G1" s="40" t="s">
+        <v>151</v>
       </c>
       <c r="H1" s="5"/>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="26"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="29"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="44" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="45" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="44" t="s">
         <v>50</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="45" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="44" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="42" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="44" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -2391,334 +2442,334 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="30"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="30"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="A9" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="14" t="s">
+      <c r="G10" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="39"/>
+      <c r="F11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="14" t="s">
+      <c r="G11" s="39"/>
+      <c r="H11" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+      <c r="A12" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="43" t="s">
+      <c r="C14" s="49"/>
+      <c r="D14" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G13" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="43" t="s">
+      <c r="G14" s="49"/>
+      <c r="H14" s="11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43" t="s">
-        <v>156</v>
-      </c>
-    </row>
     <row r="15" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="42" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="49"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="12" t="s">
+      <c r="E16" s="41"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="43"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="43"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="43"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="43"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
+      <c r="A19" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="40" t="s">
         <v>86</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="E21" s="40"/>
+      <c r="F21" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G20" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="G21" s="40"/>
+      <c r="H21" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="40" t="s">
         <v>90</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="30"/>
+      <c r="E23" s="42"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="30"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="A24" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
     </row>
     <row r="25" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="10" t="s">
         <v>75</v>
       </c>
       <c r="E25" s="5"/>
@@ -2727,12 +2778,12 @@
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="14" t="s">
+      <c r="C26" s="39"/>
+      <c r="D26" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E26" s="5"/>
@@ -2742,43 +2793,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A9:H9"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="A7:A8"/>
@@ -2786,6 +2828,15 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E22:E23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G15:G16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" display="Troubleshooter Youssef Shawky" xr:uid="{213BA889-93AF-4973-AA23-AD10EC8140E3}"/>
